--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>11,99; 25,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>7,65; 19,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>12,84; 27,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>13,8; 27,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>14,93; 29,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>11,32; 26,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>8,24; 21,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>25,21; 37,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>15,39; 25,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>10,74; 20,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>12,38; 21,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>21,3; 30,33</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,68%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,68; 16,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>16,84; 23,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>11,44; 17,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>18,75; 25,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>12,93; 19,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>21,89; 29,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>17,09; 24,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>19,06; 24,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>12,54; 16,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>20,49; 25,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,32; 20,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>19,73; 23,82</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>10,75; 14,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,77; 17,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,49; 16,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,65; 19,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>15,15; 20,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>16,19; 21,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,4; 19,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>16,91; 20,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,59; 16,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>15,23; 18,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>13,91; 17,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>15,96; 19,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,97%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>10,33; 15,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,19; 17,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,16; 17,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>17,21; 23,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,07; 19,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>14,53; 20,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>15,55; 21,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,88; 48,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>13,02; 16,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>14,38; 18,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,48; 18,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>17,86; 42,23</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,52; 13,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>15,72; 21,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,04; 17,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>17,92; 22,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,48; 17,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>20,63; 25,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,68; 19,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>21,75; 26,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>11,96; 15,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>19,27; 23,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>14,58; 17,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>20,73; 24,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,61; 13,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,38; 18,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,57; 15,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,83; 20,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,53; 18,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,46; 22,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>20,47; 30,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>13,76; 15,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,93; 19,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,46; 17,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>19,77; 26,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 25,62</t>
+          <t>11,55; 16,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 19,33</t>
+          <t>16,02; 21,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 27,12</t>
+          <t>12,77; 18,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,8; 27,14</t>
+          <t>17,96; 24,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,93; 29,0</t>
+          <t>14,23; 19,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 26,02</t>
+          <t>20,85; 27,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 21,75</t>
+          <t>16,5; 22,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,21; 37,22</t>
+          <t>21,19; 25,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 25,65</t>
+          <t>13,58; 17,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,74; 20,27</t>
+          <t>19,36; 24,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,91</t>
+          <t>15,34; 19,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 30,33</t>
+          <t>20,36; 24,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>15,73%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 16,11</t>
+          <t>10,75; 14,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 23,94</t>
+          <t>12,77; 17,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,41</t>
+          <t>12,49; 16,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 25,23</t>
+          <t>7,13; 17,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,04</t>
+          <t>15,15; 20,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,31</t>
+          <t>16,19; 21,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,32</t>
+          <t>14,4; 19,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 24,09</t>
+          <t>16,88; 20,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 16,74</t>
+          <t>13,59; 16,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,49; 25,5</t>
+          <t>15,23; 18,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 20,07</t>
+          <t>13,91; 17,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,73; 23,82</t>
+          <t>10,87; 18,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>28,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,97</t>
+          <t>10,33; 15,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,52</t>
+          <t>12,19; 17,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 16,97</t>
+          <t>12,16; 17,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,04</t>
+          <t>16,65; 22,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 20,21</t>
+          <t>14,07; 19,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,33</t>
+          <t>14,53; 20,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,11</t>
+          <t>15,55; 21,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 20,63</t>
+          <t>15,11; 62,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,79</t>
+          <t>13,02; 16,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,23; 18,47</t>
+          <t>14,38; 18,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,24</t>
+          <t>14,48; 18,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 19,33</t>
+          <t>17,18; 53,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,36</t>
+          <t>9,52; 13,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 17,89</t>
+          <t>15,72; 21,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,28</t>
+          <t>13,04; 17,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,11</t>
+          <t>17,52; 22,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,65</t>
+          <t>13,48; 17,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 20,36</t>
+          <t>20,63; 25,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,59</t>
+          <t>14,68; 19,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 48,45</t>
+          <t>17,56; 24,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 16,81</t>
+          <t>11,96; 15,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 18,26</t>
+          <t>19,27; 23,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 18,63</t>
+          <t>14,58; 17,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 42,23</t>
+          <t>18,92; 23,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,39</t>
+          <t>11,61; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,72; 21,12</t>
+          <t>15,38; 18,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,64</t>
+          <t>13,57; 15,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 22,84</t>
+          <t>13,47; 19,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,48; 17,98</t>
+          <t>15,53; 18,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,63; 25,95</t>
+          <t>19,46; 22,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,79</t>
+          <t>16,42; 19,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,61</t>
+          <t>19,74; 37,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,1</t>
+          <t>13,76; 15,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 23,08</t>
+          <t>17,93; 19,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,97</t>
+          <t>15,46; 17,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,73; 24,04</t>
+          <t>18,38; 30,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,63%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>16,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,67%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,91%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,13%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>18,81%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,33%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>21,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 13,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,38; 18,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>13,57; 15,99</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,83; 20,6</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,53; 18,1</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 22,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,42; 19,24</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>20,47; 30,5</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 15,46</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>17,93; 19,82</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,46; 17,32</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 26,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,68</t>
+          <t>11,84; 17,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,85</t>
+          <t>16,09; 22,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,1</t>
+          <t>12,67; 18,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 24,12</t>
+          <t>18,19; 24,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,64</t>
+          <t>14,04; 19,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,85; 27,38</t>
+          <t>20,92; 27,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,5; 22,71</t>
+          <t>16,83; 22,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,19; 25,54</t>
+          <t>21,25; 25,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 17,29</t>
+          <t>13,69; 17,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,13</t>
+          <t>19,38; 23,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,56</t>
+          <t>15,52; 19,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 24,28</t>
+          <t>20,3; 24,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,97</t>
+          <t>10,55; 14,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,52</t>
+          <t>12,59; 17,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 16,97</t>
+          <t>12,06; 16,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 17,56</t>
+          <t>7,46; 17,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 20,21</t>
+          <t>15,36; 20,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 21,33</t>
+          <t>16,43; 21,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,11</t>
+          <t>14,21; 19,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 20,53</t>
+          <t>16,89; 20,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 16,79</t>
+          <t>13,47; 16,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,23; 18,47</t>
+          <t>15,26; 18,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,24</t>
+          <t>13,97; 17,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 18,21</t>
+          <t>10,21; 18,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,36</t>
+          <t>10,36; 15,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,19; 17,89</t>
+          <t>12,34; 18,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,28</t>
+          <t>12,01; 17,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,52</t>
+          <t>16,62; 22,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 19,65</t>
+          <t>14,14; 19,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 20,36</t>
+          <t>14,79; 20,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,59</t>
+          <t>15,65; 21,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 62,32</t>
+          <t>15,15; 65,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 16,81</t>
+          <t>12,97; 16,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 18,26</t>
+          <t>14,54; 18,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 18,63</t>
+          <t>14,89; 18,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 53,86</t>
+          <t>17,01; 55,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,39</t>
+          <t>9,44; 13,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 21,12</t>
+          <t>15,85; 20,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 17,64</t>
+          <t>13,12; 17,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 22,58</t>
+          <t>17,74; 22,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 17,98</t>
+          <t>13,58; 18,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 25,95</t>
+          <t>20,69; 26,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,79</t>
+          <t>14,67; 19,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,98</t>
+          <t>18,44; 25,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,1</t>
+          <t>12,15; 15,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 23,08</t>
+          <t>19,29; 23,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,97</t>
+          <t>14,45; 18,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,92; 23,04</t>
+          <t>18,76; 23,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,82</t>
+          <t>11,59; 13,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 18,01</t>
+          <t>15,25; 18,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,57; 15,99</t>
+          <t>13,68; 16,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,44</t>
+          <t>13,67; 19,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,1</t>
+          <t>15,41; 18,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 22,4</t>
+          <t>19,62; 22,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,24</t>
+          <t>16,43; 19,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,74; 37,13</t>
+          <t>19,8; 39,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 15,46</t>
+          <t>13,84; 15,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,93; 19,82</t>
+          <t>17,85; 19,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,32</t>
+          <t>15,46; 17,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,38; 30,77</t>
+          <t>18,5; 30,12</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98689</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133063</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>132854</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>114490</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>167748</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>131912</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>157596</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>213179</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>300811</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>234882</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>290450</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82039; 118799</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>112889; 155450</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>85521; 122877</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115589; 153367</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>96638; 134975</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>145429; 191150</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>113269; 153703</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>143595; 174896</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>189107; 241629</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>270776; 333408</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>209199; 263810</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>266141; 316535</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>121399</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>150926</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>147125</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>159020</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>170621</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>192013</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>173710</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>179287</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>292020</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>342938</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>320835</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>338308</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>101424; 144062</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128172; 175818</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>123324; 169828</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>89010; 208703</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>148786; 195915</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>168721; 220015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148221; 201891</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>161837; 197152</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>259992; 322977</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>311931; 380725</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>288576; 357730</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>219535; 391463</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86185</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>111802</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>110306</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>136621</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>115214</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>136985</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>145227</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>321718</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>201399</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>248787</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>255533</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>458340</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70262; 104114</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>93350; 136682</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91225; 131992</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>116817; 158159</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96698; 134600</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>114791; 158968</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>122828; 170693</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>141320; 608433</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176647; 231075</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>222816; 280426</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>230017; 288705</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>278264; 909961</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107289</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>173563</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>143187</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>184843</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>163060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>244795</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>178674</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>244039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>270348</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>418358</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>321861</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>428882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88949; 125324</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>149915; 198571</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>123011; 166298</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>164444; 209811</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>141071; 188440</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>217023; 273855</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>153145; 207290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>201303; 273606</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>240637; 298693</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>384730; 459106</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>286211; 361152</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>378545; 465910</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>413562</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>569354</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>503588</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>613339</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>563384</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>741541</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>629524</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>902641</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>976946</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1310894</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1133112</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1515979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>379776; 455223</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>521960; 617425</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>464438; 546579</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>472651; 678362</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>520780; 611006</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>695928; 791566</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>582339; 677238</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>724417; 1439981</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>920899; 1037997</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1243721; 1377777</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1072519; 1202296</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1316310; 2143246</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>